--- a/biology/Zoologie/Hypositte_malgache/Hypositte_malgache.xlsx
+++ b/biology/Zoologie/Hypositte_malgache/Hypositte_malgache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypositta corallirostris
 L'Hypositte malgache (Hypositta corallirostris), appelé aussi Vanga-Sittelle ou Fausse sittelle, est une espèce de passereaux de la famille des Vangidae. C'est la plus petite espèce de cette famille.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hypositte malgache mesure 13 à 14 cm.
 Chez le mâle, la coloration générale est bleu gris. Le front, les lores et le menton sont noirs. Le bec est rouge vif avec l'extrémité noire. Les iris sont brun sombre.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Langrand O. (1995) Guide des Oiseaux de Madagascar. Delachaux &amp; Niestlé, Lausanne, Paris, 415 p.</t>
         </is>
